--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>805273.0875069237</v>
+        <v>800826.6646583242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.07986709</v>
+        <v>29913606.07986706</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938639</v>
+        <v>7134934.855938641</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4992937.85965482</v>
+        <v>4992937.859654821</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.797617302526005</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.035361481660987</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T12" t="n">
         <v>136.0833327936195</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5716049838741</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U13" t="n">
-        <v>48.59727636049125</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>169.7841321603163</v>
       </c>
       <c r="G14" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>95.43391946865214</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T15" t="n">
         <v>136.0833327936195</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U16" t="n">
-        <v>254.2476620833389</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>5.510713049953464</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>176.4624684492539</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309218</v>
+        <v>57.0663280430922</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.8029069979494</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T18" t="n">
         <v>136.0833327936195</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38780296833761</v>
+        <v>71.38780296833762</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425557</v>
+        <v>5.626053133425572</v>
       </c>
       <c r="S19" t="n">
-        <v>26.99603296466108</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
         <v>237.0153716433569</v>
@@ -2061,7 +2061,7 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>57.74391027230211</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>347.6008450858225</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>209.8618521764914</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.2657302332918</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>26.99603296466044</v>
       </c>
       <c r="H22" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S22" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.0153716433569</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>22.08350392739541</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>240.5106385305652</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>172.8593743547384</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>145.7504829128426</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T25" t="n">
         <v>237.0153716433569</v>
@@ -2535,16 +2535,16 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.8868405755511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T26" t="n">
-        <v>139.155960097212</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>25.09905994527187</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>167.6081512154003</v>
       </c>
       <c r="D28" t="n">
-        <v>68.10029489883352</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3329370021073</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>185.1399756085879</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
-        <v>152.06540998118</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>8.693529236103625</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I31" t="n">
         <v>71.38780296833761</v>
@@ -3006,7 +3006,7 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3329370021073</v>
+        <v>212.1593859996576</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>57.72363960057908</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>40.53672092556669</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U34" t="n">
-        <v>192.8971658567888</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>72.1607509500835</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>80.88471032839735</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>188.5180255327626</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>80.08133220444122</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.10571397134928</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.0153716433569</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>404.3433328749679</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T38" t="n">
-        <v>203.7945623714851</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.86824812483258</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
-        <v>134.26258275451</v>
+        <v>20.46278456577469</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
         <v>277.3329370021073</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>185.139975608587</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>203.1432200859897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.26425488521269</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.6838381111991</v>
@@ -3948,7 +3948,7 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5650864830671</v>
+        <v>111.2194017235748</v>
       </c>
       <c r="T43" t="n">
         <v>237.0153716433569</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6089649852995</v>
+        <v>157.9708776250879</v>
       </c>
       <c r="V44" t="n">
-        <v>203.1432200859897</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>123.2004390291828</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>104.1363402421745</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H46" t="n">
         <v>134.26258275451</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
         <v>152.5650864830671</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1172.727467813959</v>
+        <v>1321.835159373711</v>
       </c>
       <c r="C11" t="n">
-        <v>745.826737827259</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="D11" t="n">
-        <v>745.826737827259</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E11" t="n">
-        <v>745.826737827259</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F11" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G11" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I11" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037499</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M11" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N11" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O11" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P11" t="n">
         <v>1918.85421215123</v>
@@ -5068,25 +5068,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2184.799106109887</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T11" t="n">
-        <v>2184.799106109887</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U11" t="n">
-        <v>1926.608232387362</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V11" t="n">
-        <v>1569.118817513612</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="W11" t="n">
-        <v>1172.727467813959</v>
+        <v>1737.631280914712</v>
       </c>
       <c r="X11" t="n">
-        <v>1172.727467813959</v>
+        <v>1325.91128208246</v>
       </c>
       <c r="Y11" t="n">
-        <v>1172.727467813959</v>
+        <v>1321.835159373711</v>
       </c>
     </row>
     <row r="12">
@@ -5102,31 +5102,31 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D12" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E12" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F12" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G12" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I12" t="n">
-        <v>64.84342863053152</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J12" t="n">
-        <v>370.497648442846</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K12" t="n">
-        <v>521.9522409288486</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L12" t="n">
-        <v>733.1290441215943</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M12" t="n">
         <v>982.7079039592064</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.9407234775822</v>
+        <v>883.5321186242479</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9681603564982</v>
+        <v>711.5595555031639</v>
       </c>
       <c r="D13" t="n">
-        <v>754.9681603564982</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="E13" t="n">
         <v>588.7599545093517</v>
@@ -5196,55 +5196,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J13" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L13" t="n">
-        <v>659.8249844777409</v>
+        <v>870.3457903084412</v>
       </c>
       <c r="M13" t="n">
-        <v>1192.318148637051</v>
+        <v>989.3034740049295</v>
       </c>
       <c r="N13" t="n">
-        <v>1309.72413245845</v>
+        <v>1106.709457826328</v>
       </c>
       <c r="O13" t="n">
-        <v>1792.56900858074</v>
+        <v>1589.554333948618</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R13" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S13" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.665386213449</v>
+        <v>1946.573037954072</v>
       </c>
       <c r="U13" t="n">
-        <v>2142.577228273559</v>
+        <v>1666.438758153964</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.865760881588</v>
+        <v>1384.727290761993</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.013357054101</v>
+        <v>1109.874886934506</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.449460499906</v>
+        <v>1109.874886934506</v>
       </c>
       <c r="Y13" t="n">
-        <v>1117.106692189648</v>
+        <v>883.5321186242479</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>871.2461059321332</v>
+        <v>1317.782916623182</v>
       </c>
       <c r="C14" t="n">
-        <v>871.2461059321332</v>
+        <v>1317.782916623182</v>
       </c>
       <c r="D14" t="n">
-        <v>871.2461059321332</v>
+        <v>894.4902958081825</v>
       </c>
       <c r="E14" t="n">
-        <v>871.2461059321332</v>
+        <v>894.4902958081825</v>
       </c>
       <c r="F14" t="n">
-        <v>446.1219241215334</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G14" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643833</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037494</v>
+        <v>228.547717203749</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804919</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050655</v>
       </c>
       <c r="M14" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N14" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O14" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P14" t="n">
         <v>1918.85421215123</v>
@@ -5305,25 +5305,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T14" t="n">
-        <v>1979.715642681246</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U14" t="n">
-        <v>1721.524768958721</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V14" t="n">
-        <v>1364.03535408497</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="W14" t="n">
-        <v>967.6440043853172</v>
+        <v>1737.631280914712</v>
       </c>
       <c r="X14" t="n">
-        <v>871.2461059321332</v>
+        <v>1737.631280914712</v>
       </c>
       <c r="Y14" t="n">
-        <v>871.2461059321332</v>
+        <v>1737.631280914712</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D15" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E15" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F15" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053152</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J15" t="n">
-        <v>146.0262857709435</v>
+        <v>146.0262857709434</v>
       </c>
       <c r="K15" t="n">
-        <v>297.4808782569461</v>
+        <v>297.480878256946</v>
       </c>
       <c r="L15" t="n">
-        <v>508.6576814496919</v>
+        <v>508.6576814496918</v>
       </c>
       <c r="M15" t="n">
-        <v>758.2365412873039</v>
+        <v>758.2365412873038</v>
       </c>
       <c r="N15" t="n">
         <v>1016.762415698551</v>
       </c>
       <c r="O15" t="n">
-        <v>1474.123729607747</v>
+        <v>1249.652366935844</v>
       </c>
       <c r="P15" t="n">
         <v>1657.896824151927</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.2130611312715</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C16" t="n">
-        <v>547.2404980101875</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D16" t="n">
-        <v>547.2404980101875</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E16" t="n">
-        <v>381.032292163041</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F16" t="n">
-        <v>209.1705179376014</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G16" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H16" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J16" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K16" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L16" t="n">
-        <v>659.8249844777409</v>
+        <v>834.5126341488228</v>
       </c>
       <c r="M16" t="n">
-        <v>778.7826681742292</v>
+        <v>1367.005798308133</v>
       </c>
       <c r="N16" t="n">
-        <v>1258.082955204228</v>
+        <v>1484.411782129532</v>
       </c>
       <c r="O16" t="n">
-        <v>1740.927831326518</v>
+        <v>1589.554333948618</v>
       </c>
       <c r="P16" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R16" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S16" t="n">
-        <v>2191.665386213449</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.665386213449</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U16" t="n">
-        <v>1934.849565927248</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.138098535277</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.28569470779</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.721798153595</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.3790298433371</v>
+        <v>1280.423465062877</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.7025560166592</v>
+        <v>1074.103137147078</v>
       </c>
       <c r="C17" t="n">
-        <v>320.7025560166592</v>
+        <v>647.2024071603778</v>
       </c>
       <c r="D17" t="n">
-        <v>320.7025560166592</v>
+        <v>647.2024071603778</v>
       </c>
       <c r="E17" t="n">
-        <v>320.7025560166592</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F17" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G17" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643833</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037494</v>
+        <v>228.547717203749</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804923</v>
+        <v>448.774778480492</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050655</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832445</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N17" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P17" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q17" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R17" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T17" t="n">
-        <v>1922.072887082163</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U17" t="n">
-        <v>1663.882013359638</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="V17" t="n">
-        <v>1306.392598485888</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="W17" t="n">
-        <v>910.0012487862346</v>
+        <v>1479.440407192187</v>
       </c>
       <c r="X17" t="n">
-        <v>498.2812499539818</v>
+        <v>1479.440407192187</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.7025560166592</v>
+        <v>1074.103137147078</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J18" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579407</v>
       </c>
       <c r="K18" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439432</v>
       </c>
       <c r="L18" t="n">
-        <v>733.1290441215943</v>
+        <v>627.673543836689</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743009</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>423.5335331916638</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="C19" t="n">
-        <v>251.5609700705797</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="D19" t="n">
-        <v>251.5609700705797</v>
+        <v>583.1063861310586</v>
       </c>
       <c r="E19" t="n">
-        <v>251.5609700705797</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="F19" t="n">
-        <v>251.5609700705797</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G19" t="n">
         <v>251.5609700705797</v>
@@ -5670,55 +5670,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270241</v>
       </c>
       <c r="K19" t="n">
-        <v>496.3180254984903</v>
+        <v>411.8981285166561</v>
       </c>
       <c r="L19" t="n">
-        <v>985.0293102399839</v>
+        <v>900.6094132581495</v>
       </c>
       <c r="M19" t="n">
-        <v>1103.986993936472</v>
+        <v>1433.10257741746</v>
       </c>
       <c r="N19" t="n">
-        <v>1221.392977757871</v>
+        <v>1948.541484080738</v>
       </c>
       <c r="O19" t="n">
-        <v>1704.237853880161</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P19" t="n">
-        <v>2103.864105162455</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S19" t="n">
-        <v>2158.71378409417</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T19" t="n">
-        <v>1919.304317787749</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U19" t="n">
-        <v>1639.17003798764</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="V19" t="n">
-        <v>1357.458570595669</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="W19" t="n">
-        <v>1082.606166768182</v>
+        <v>1237.480206363783</v>
       </c>
       <c r="X19" t="n">
-        <v>840.0422702139874</v>
+        <v>994.9163098095879</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.6995019037295</v>
+        <v>936.5891277163535</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1360.097023089666</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="C20" t="n">
-        <v>1360.097023089666</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D20" t="n">
-        <v>1360.097023089666</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E20" t="n">
-        <v>1148.115354224523</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F20" t="n">
         <v>722.9911724139236</v>
@@ -5746,10 +5746,10 @@
         <v>320.7025560166592</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643835</v>
       </c>
       <c r="J20" t="n">
         <v>228.5477172037494</v>
@@ -5761,13 +5761,13 @@
         <v>727.9824581050659</v>
       </c>
       <c r="M20" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N20" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O20" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P20" t="n">
         <v>1918.85421215123</v>
@@ -5779,25 +5779,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T20" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U20" t="n">
-        <v>2191.665386213449</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="V20" t="n">
-        <v>2191.665386213449</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="W20" t="n">
-        <v>2191.665386213449</v>
+        <v>1479.440407192187</v>
       </c>
       <c r="X20" t="n">
-        <v>1779.945387381196</v>
+        <v>1479.440407192187</v>
       </c>
       <c r="Y20" t="n">
-        <v>1779.945387381196</v>
+        <v>1074.103137147078</v>
       </c>
     </row>
     <row r="21">
@@ -5813,37 +5813,37 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D21" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E21" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F21" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G21" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H21" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I21" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J21" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K21" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L21" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M21" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N21" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O21" t="n">
         <v>1368.668229322841</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1018.148604463602</v>
+        <v>450.8022533579874</v>
       </c>
       <c r="C22" t="n">
-        <v>846.1760413425178</v>
+        <v>278.8296902369034</v>
       </c>
       <c r="D22" t="n">
-        <v>682.8592684692885</v>
+        <v>278.8296902369034</v>
       </c>
       <c r="E22" t="n">
-        <v>516.651062622142</v>
+        <v>278.8296902369034</v>
       </c>
       <c r="F22" t="n">
-        <v>344.7892883967024</v>
+        <v>278.8296902369034</v>
       </c>
       <c r="G22" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H22" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J22" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K22" t="n">
         <v>171.1136997362474</v>
       </c>
       <c r="L22" t="n">
-        <v>522.9070889549464</v>
+        <v>522.9070889549459</v>
       </c>
       <c r="M22" t="n">
         <v>1055.400253114256</v>
       </c>
       <c r="N22" t="n">
-        <v>1570.839159777536</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O22" t="n">
-        <v>2053.684035899826</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P22" t="n">
         <v>2140.554082608811</v>
@@ -5934,28 +5934,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S22" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="T22" t="n">
-        <v>1792.466889991379</v>
+        <v>1946.573037954072</v>
       </c>
       <c r="U22" t="n">
-        <v>1512.33261019127</v>
+        <v>1666.438758153964</v>
       </c>
       <c r="V22" t="n">
-        <v>1230.621142799299</v>
+        <v>1384.727290761993</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.314573175667</v>
+        <v>1109.874886934506</v>
       </c>
       <c r="X22" t="n">
-        <v>1208.314573175667</v>
+        <v>867.310990380311</v>
       </c>
       <c r="Y22" t="n">
-        <v>1208.314573175667</v>
+        <v>640.968222070053</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>446.1219241215334</v>
+        <v>711.8975284546316</v>
       </c>
       <c r="C23" t="n">
-        <v>446.1219241215334</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="D23" t="n">
-        <v>446.1219241215334</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1219241215334</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F23" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G23" t="n">
         <v>43.83330772426899</v>
@@ -5986,28 +5986,28 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643926</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J23" t="n">
-        <v>228.5477172037504</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7747784804933</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L23" t="n">
-        <v>727.9824581050668</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M23" t="n">
-        <v>1043.801082832445</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N23" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O23" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q23" t="n">
         <v>2100.109526681866</v>
@@ -6022,19 +6022,19 @@
         <v>2191.665386213449</v>
       </c>
       <c r="U23" t="n">
-        <v>2017.059957572299</v>
+        <v>1933.474512490925</v>
       </c>
       <c r="V23" t="n">
-        <v>1659.570542698549</v>
+        <v>1933.474512490925</v>
       </c>
       <c r="W23" t="n">
-        <v>1263.179192998896</v>
+        <v>1537.083162791271</v>
       </c>
       <c r="X23" t="n">
-        <v>851.4591941666431</v>
+        <v>1537.083162791271</v>
       </c>
       <c r="Y23" t="n">
-        <v>446.1219241215334</v>
+        <v>1131.745892746162</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J24" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K24" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M24" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N24" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O24" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P24" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R24" t="n">
         <v>1815.956238873899</v>
@@ -6147,52 +6147,52 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K25" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L25" t="n">
-        <v>283.4360908865759</v>
+        <v>850.0151917697652</v>
       </c>
       <c r="M25" t="n">
-        <v>815.929255045886</v>
+        <v>968.9728754662535</v>
       </c>
       <c r="N25" t="n">
-        <v>1331.368161709165</v>
+        <v>1484.411782129533</v>
       </c>
       <c r="O25" t="n">
-        <v>1814.213037831455</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P25" t="n">
-        <v>2140.554082608812</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q25" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S25" t="n">
-        <v>2191.665386213449</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T25" t="n">
-        <v>1952.255919907028</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U25" t="n">
-        <v>1672.12164010692</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="V25" t="n">
-        <v>1390.410172714949</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="W25" t="n">
-        <v>1390.410172714949</v>
+        <v>1237.480206363784</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.410172714949</v>
+        <v>1237.480206363784</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.423465062877</v>
+        <v>1237.480206363784</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1297.223045784276</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="C26" t="n">
-        <v>1297.223045784276</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D26" t="n">
-        <v>1297.223045784276</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E26" t="n">
-        <v>871.2461059321332</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F26" t="n">
-        <v>446.1219241215334</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G26" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M26" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N26" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O26" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P26" t="n">
         <v>1918.85421215123</v>
@@ -6253,25 +6253,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S26" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T26" t="n">
-        <v>2051.103810357679</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U26" t="n">
-        <v>2051.103810357679</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="V26" t="n">
-        <v>1693.614395483929</v>
+        <v>1564.583472208412</v>
       </c>
       <c r="W26" t="n">
-        <v>1297.223045784276</v>
+        <v>1168.192122508759</v>
       </c>
       <c r="X26" t="n">
-        <v>1297.223045784276</v>
+        <v>1168.192122508759</v>
       </c>
       <c r="Y26" t="n">
-        <v>1297.223045784276</v>
+        <v>1142.839536705454</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D27" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E27" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F27" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G27" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H27" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J27" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K27" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L27" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N27" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O27" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R27" t="n">
         <v>1815.956238873899</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>450.8022533579878</v>
+        <v>541.7884536546694</v>
       </c>
       <c r="C28" t="n">
-        <v>278.8296902369038</v>
+        <v>372.4872908108307</v>
       </c>
       <c r="D28" t="n">
-        <v>210.0415135714154</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="E28" t="n">
-        <v>43.83330772426898</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="F28" t="n">
-        <v>43.83330772426898</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G28" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J28" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K28" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L28" t="n">
-        <v>985.0293102399839</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M28" t="n">
-        <v>1103.986993936472</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N28" t="n">
-        <v>1221.392977757871</v>
+        <v>1309.72413245845</v>
       </c>
       <c r="O28" t="n">
-        <v>1704.237853880161</v>
+        <v>1740.927831326518</v>
       </c>
       <c r="P28" t="n">
-        <v>2103.864105162455</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q28" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R28" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T28" t="n">
-        <v>1946.573037954073</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="U28" t="n">
-        <v>1666.438758153964</v>
+        <v>1757.424958450646</v>
       </c>
       <c r="V28" t="n">
-        <v>1384.727290761993</v>
+        <v>1475.713491058675</v>
       </c>
       <c r="W28" t="n">
-        <v>1109.874886934506</v>
+        <v>1200.861087231188</v>
       </c>
       <c r="X28" t="n">
-        <v>867.3109903803114</v>
+        <v>958.297190676993</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.9682220700535</v>
+        <v>731.954422366735</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.1259285392687</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="C29" t="n">
-        <v>467.1259285392687</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D29" t="n">
-        <v>43.83330772426898</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E29" t="n">
-        <v>43.83330772426898</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F29" t="n">
-        <v>43.83330772426898</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G29" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H29" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K29" t="n">
         <v>448.7747784804923</v>
@@ -6481,34 +6481,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P29" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q29" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R29" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T29" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U29" t="n">
-        <v>2038.063961990035</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V29" t="n">
-        <v>1680.574547116284</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W29" t="n">
-        <v>1284.183197416631</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="X29" t="n">
-        <v>872.4631985843785</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.1259285392687</v>
+        <v>910.0012487862346</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H30" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K30" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M30" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N30" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O30" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P30" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>296.6961053952936</v>
+        <v>588.8707434049961</v>
       </c>
       <c r="C31" t="n">
-        <v>124.7235422742096</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="D31" t="n">
-        <v>115.9421996114787</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="E31" t="n">
-        <v>115.9421996114787</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="F31" t="n">
-        <v>115.9421996114787</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G31" t="n">
-        <v>115.9421996114787</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H31" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I31" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J31" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K31" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L31" t="n">
-        <v>985.0293102399839</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M31" t="n">
-        <v>1103.986993936472</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N31" t="n">
-        <v>1221.392977757871</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O31" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
@@ -6654,19 +6654,19 @@
         <v>1792.466889991379</v>
       </c>
       <c r="U31" t="n">
-        <v>1512.33261019127</v>
+        <v>1578.164479890715</v>
       </c>
       <c r="V31" t="n">
-        <v>1230.621142799299</v>
+        <v>1296.453012498744</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7687389718121</v>
+        <v>1021.600608671257</v>
       </c>
       <c r="X31" t="n">
-        <v>713.2048424176172</v>
+        <v>779.0367121170618</v>
       </c>
       <c r="Y31" t="n">
-        <v>486.8620741073593</v>
+        <v>779.0367121170618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1319.150840336568</v>
+        <v>1380.141866040963</v>
       </c>
       <c r="C32" t="n">
-        <v>892.2501103498685</v>
+        <v>953.2411360542628</v>
       </c>
       <c r="D32" t="n">
-        <v>468.9574895348688</v>
+        <v>953.2411360542628</v>
       </c>
       <c r="E32" t="n">
-        <v>468.9574895348688</v>
+        <v>527.2641962021204</v>
       </c>
       <c r="F32" t="n">
-        <v>43.83330772426898</v>
+        <v>102.1400143915206</v>
       </c>
       <c r="G32" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H32" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I32" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804921</v>
       </c>
       <c r="L32" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M32" t="n">
         <v>1043.801082832444</v>
@@ -6718,34 +6718,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S32" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T32" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U32" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V32" t="n">
-        <v>2191.665386213449</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="W32" t="n">
-        <v>2150.719203460351</v>
+        <v>1380.141866040963</v>
       </c>
       <c r="X32" t="n">
-        <v>1738.999204628098</v>
+        <v>1380.141866040963</v>
       </c>
       <c r="Y32" t="n">
-        <v>1738.999204628098</v>
+        <v>1380.141866040963</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H33" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J33" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K33" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L33" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M33" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N33" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O33" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P33" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q33" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R33" t="n">
         <v>1815.956238873899</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>387.6676450707926</v>
+        <v>752.1875162782255</v>
       </c>
       <c r="C34" t="n">
-        <v>215.6950819497086</v>
+        <v>580.2149531571415</v>
       </c>
       <c r="D34" t="n">
-        <v>215.6950819497086</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="E34" t="n">
-        <v>215.6950819497086</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="F34" t="n">
-        <v>43.83330772426898</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G34" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H34" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I34" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J34" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K34" t="n">
-        <v>249.0354163844682</v>
+        <v>418.3963088502694</v>
       </c>
       <c r="L34" t="n">
-        <v>361.3578075347968</v>
+        <v>907.1075935917629</v>
       </c>
       <c r="M34" t="n">
-        <v>893.8509716941069</v>
+        <v>1026.065277288251</v>
       </c>
       <c r="N34" t="n">
-        <v>1409.289878357386</v>
+        <v>1143.47126110965</v>
       </c>
       <c r="O34" t="n">
-        <v>1892.134754479676</v>
+        <v>1626.31613723194</v>
       </c>
       <c r="P34" t="n">
-        <v>1989.180585230912</v>
+        <v>2025.942388514233</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
@@ -6891,19 +6891,19 @@
         <v>1798.149771944334</v>
       </c>
       <c r="U34" t="n">
-        <v>1603.304149866769</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="V34" t="n">
-        <v>1321.592682474798</v>
+        <v>1516.438304552363</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.740278647311</v>
+        <v>1241.585900724876</v>
       </c>
       <c r="X34" t="n">
-        <v>804.1763820931162</v>
+        <v>1168.696253300549</v>
       </c>
       <c r="Y34" t="n">
-        <v>577.8336137828583</v>
+        <v>942.3534849902912</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>722.9911724139236</v>
+        <v>893.1028683914112</v>
       </c>
       <c r="C35" t="n">
-        <v>722.9911724139236</v>
+        <v>893.1028683914112</v>
       </c>
       <c r="D35" t="n">
-        <v>722.9911724139236</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="E35" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F35" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G35" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H35" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I35" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J35" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804921</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M35" t="n">
         <v>1043.801082832444</v>
@@ -6955,34 +6955,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P35" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q35" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R35" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T35" t="n">
-        <v>1979.715642681246</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U35" t="n">
-        <v>1721.524768958721</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V35" t="n">
-        <v>1531.102520945829</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="W35" t="n">
-        <v>1134.711171246176</v>
+        <v>1380.141866040963</v>
       </c>
       <c r="X35" t="n">
-        <v>722.9911724139236</v>
+        <v>1380.141866040963</v>
       </c>
       <c r="Y35" t="n">
-        <v>722.9911724139236</v>
+        <v>974.804595995853</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H36" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I36" t="n">
         <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K36" t="n">
-        <v>320.9381841013579</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L36" t="n">
-        <v>532.1149872941037</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M36" t="n">
-        <v>781.6938471317158</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N36" t="n">
         <v>1135.778278085548</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>296.6961053952936</v>
+        <v>450.8022533579883</v>
       </c>
       <c r="C37" t="n">
-        <v>124.7235422742096</v>
+        <v>450.8022533579883</v>
       </c>
       <c r="D37" t="n">
-        <v>124.7235422742096</v>
+        <v>450.8022533579883</v>
       </c>
       <c r="E37" t="n">
-        <v>43.83330772426898</v>
+        <v>450.8022533579883</v>
       </c>
       <c r="F37" t="n">
-        <v>43.83330772426898</v>
+        <v>278.9404791325487</v>
       </c>
       <c r="G37" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H37" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I37" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J37" t="n">
         <v>87.13587819270245</v>
       </c>
       <c r="K37" t="n">
-        <v>410.5846978046179</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L37" t="n">
-        <v>522.9070889549464</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M37" t="n">
-        <v>1055.400253114256</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N37" t="n">
         <v>1570.839159777536</v>
@@ -7113,7 +7113,7 @@
         <v>2053.684035899826</v>
       </c>
       <c r="P37" t="n">
-        <v>2140.554082608811</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q37" t="n">
         <v>2191.665386213449</v>
@@ -7122,25 +7122,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S37" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.466889991379</v>
+        <v>1946.573037954073</v>
       </c>
       <c r="U37" t="n">
-        <v>1512.33261019127</v>
+        <v>1666.438758153965</v>
       </c>
       <c r="V37" t="n">
-        <v>1230.621142799299</v>
+        <v>1384.727290761994</v>
       </c>
       <c r="W37" t="n">
-        <v>955.7687389718121</v>
+        <v>1109.874886934507</v>
       </c>
       <c r="X37" t="n">
-        <v>713.2048424176172</v>
+        <v>867.3109903803119</v>
       </c>
       <c r="Y37" t="n">
-        <v>486.8620741073593</v>
+        <v>640.9682220700539</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1574.092294076666</v>
+        <v>1302.454267490583</v>
       </c>
       <c r="C38" t="n">
-        <v>1574.092294076666</v>
+        <v>875.5535375038828</v>
       </c>
       <c r="D38" t="n">
-        <v>1574.092294076666</v>
+        <v>452.2609166888831</v>
       </c>
       <c r="E38" t="n">
-        <v>1148.115354224523</v>
+        <v>452.2609166888831</v>
       </c>
       <c r="F38" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G38" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H38" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I38" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J38" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050663</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M38" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N38" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O38" t="n">
         <v>1667.064768900565</v>
@@ -7201,25 +7201,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T38" t="n">
-        <v>1985.812292908919</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U38" t="n">
-        <v>1985.812292908919</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V38" t="n">
-        <v>1985.812292908919</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="W38" t="n">
-        <v>1985.812292908919</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="X38" t="n">
-        <v>1574.092294076666</v>
+        <v>1722.302631782113</v>
       </c>
       <c r="Y38" t="n">
-        <v>1574.092294076666</v>
+        <v>1722.302631782113</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D39" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E39" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F39" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G39" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H39" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I39" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J39" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K39" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L39" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M39" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N39" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O39" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
         <v>1815.956238873899</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>690.211719664409</v>
+        <v>731.3375391384295</v>
       </c>
       <c r="C40" t="n">
-        <v>518.239156543325</v>
+        <v>559.3649760173455</v>
       </c>
       <c r="D40" t="n">
-        <v>518.239156543325</v>
+        <v>396.0482031441162</v>
       </c>
       <c r="E40" t="n">
-        <v>518.239156543325</v>
+        <v>229.8399972969698</v>
       </c>
       <c r="F40" t="n">
-        <v>346.3773823178853</v>
+        <v>229.8399972969698</v>
       </c>
       <c r="G40" t="n">
-        <v>251.5609700705797</v>
+        <v>64.50278708363734</v>
       </c>
       <c r="H40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I40" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J40" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L40" t="n">
-        <v>522.9070889549464</v>
+        <v>985.0293102399838</v>
       </c>
       <c r="M40" t="n">
-        <v>1055.400253114256</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N40" t="n">
-        <v>1570.839159777536</v>
+        <v>1948.541484080738</v>
       </c>
       <c r="O40" t="n">
-        <v>2053.684035899826</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P40" t="n">
         <v>2140.554082608811</v>
@@ -7356,28 +7356,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R40" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.982504260494</v>
+        <v>1952.255919907027</v>
       </c>
       <c r="U40" t="n">
-        <v>1905.848224460386</v>
+        <v>1672.121640106919</v>
       </c>
       <c r="V40" t="n">
-        <v>1624.136757068414</v>
+        <v>1390.410172714948</v>
       </c>
       <c r="W40" t="n">
-        <v>1349.284353240927</v>
+        <v>1390.410172714948</v>
       </c>
       <c r="X40" t="n">
-        <v>1106.720456686733</v>
+        <v>1147.846276160753</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.3776883764747</v>
+        <v>921.5035078504952</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>896.7109775631113</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="C41" t="n">
-        <v>469.8102475764114</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D41" t="n">
-        <v>469.8102475764114</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E41" t="n">
-        <v>43.83330772426898</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F41" t="n">
-        <v>43.83330772426898</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G41" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H41" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I41" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J41" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K41" t="n">
-        <v>448.7747784804921</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L41" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M41" t="n">
         <v>1043.801082832443</v>
@@ -7426,7 +7426,7 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O41" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P41" t="n">
         <v>1918.85421215123</v>
@@ -7438,25 +7438,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S41" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T41" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U41" t="n">
-        <v>1933.474512490924</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V41" t="n">
-        <v>1933.474512490924</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="W41" t="n">
-        <v>1933.474512490924</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="X41" t="n">
-        <v>1521.754513658671</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="Y41" t="n">
-        <v>1316.559341854641</v>
+        <v>910.0012487862336</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D42" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E42" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F42" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G42" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H42" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J42" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K42" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L42" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M42" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N42" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O42" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P42" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.8981802839121</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="C43" t="n">
-        <v>416.8981802839121</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="D43" t="n">
-        <v>416.8981802839121</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E43" t="n">
-        <v>416.8981802839121</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F43" t="n">
         <v>416.8981802839121</v>
@@ -7566,25 +7566,25 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I43" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J43" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K43" t="n">
         <v>171.1136997362474</v>
       </c>
       <c r="L43" t="n">
-        <v>522.9070889549464</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M43" t="n">
-        <v>1055.400253114256</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N43" t="n">
-        <v>1570.839159777536</v>
+        <v>1294.221574837508</v>
       </c>
       <c r="O43" t="n">
-        <v>2053.684035899826</v>
+        <v>1777.066450959798</v>
       </c>
       <c r="P43" t="n">
         <v>2140.554082608811</v>
@@ -7593,28 +7593,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R43" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S43" t="n">
-        <v>2031.8763562978</v>
+        <v>2073.639674236681</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.466889991379</v>
+        <v>1834.230207930259</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.33261019127</v>
+        <v>1554.095928130151</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.621142799299</v>
+        <v>1272.38446073818</v>
       </c>
       <c r="W43" t="n">
-        <v>955.7687389718121</v>
+        <v>997.5320569106931</v>
       </c>
       <c r="X43" t="n">
-        <v>713.2048424176172</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="Y43" t="n">
-        <v>486.8620741073593</v>
+        <v>754.9681603564982</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>896.7109775631113</v>
+        <v>1172.727467813959</v>
       </c>
       <c r="C44" t="n">
-        <v>469.8102475764114</v>
+        <v>745.826737827259</v>
       </c>
       <c r="D44" t="n">
-        <v>469.8102475764114</v>
+        <v>745.826737827259</v>
       </c>
       <c r="E44" t="n">
-        <v>43.83330772426898</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F44" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G44" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H44" t="n">
         <v>43.83330772426898</v>
       </c>
       <c r="I44" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J44" t="n">
         <v>228.5477172037495</v>
@@ -7654,13 +7654,13 @@
         <v>448.7747784804924</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050659</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M44" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N44" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O44" t="n">
         <v>1667.064768900565</v>
@@ -7675,25 +7675,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U44" t="n">
-        <v>1933.474512490924</v>
+        <v>1974.456087558721</v>
       </c>
       <c r="V44" t="n">
-        <v>1728.279340686894</v>
+        <v>1974.456087558721</v>
       </c>
       <c r="W44" t="n">
-        <v>1728.279340686894</v>
+        <v>1578.064737859068</v>
       </c>
       <c r="X44" t="n">
-        <v>1316.559341854641</v>
+        <v>1578.064737859068</v>
       </c>
       <c r="Y44" t="n">
-        <v>1316.559341854641</v>
+        <v>1172.727467813959</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>974.9733260640804</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C45" t="n">
-        <v>857.4674225815852</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D45" t="n">
-        <v>753.6274640968702</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E45" t="n">
-        <v>648.9255303698075</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F45" t="n">
-        <v>555.2797000527116</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G45" t="n">
-        <v>462.3230136065757</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>419.5424550638183</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I45" t="n">
-        <v>440.5525759700809</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J45" t="n">
-        <v>521.7354331104929</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K45" t="n">
-        <v>673.1900255964955</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L45" t="n">
-        <v>884.3668287892413</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M45" t="n">
-        <v>1358.417051298756</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N45" t="n">
-        <v>1616.942925710003</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O45" t="n">
-        <v>1849.832876947296</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P45" t="n">
-        <v>2033.605971491477</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q45" t="n">
-        <v>2148.341548985152</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R45" t="n">
-        <v>2191.665386213449</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S45" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T45" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U45" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V45" t="n">
-        <v>1603.591947530971</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W45" t="n">
-        <v>1407.070570364188</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.593224130851</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y45" t="n">
-        <v>1103.900335484143</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.7217556585067</v>
+        <v>713.2048424176172</v>
       </c>
       <c r="C46" t="n">
-        <v>356.7491925374227</v>
+        <v>713.2048424176172</v>
       </c>
       <c r="D46" t="n">
-        <v>356.7491925374227</v>
+        <v>713.2048424176172</v>
       </c>
       <c r="E46" t="n">
-        <v>356.7491925374227</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F46" t="n">
-        <v>356.7491925374227</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G46" t="n">
         <v>251.5609700705797</v>
@@ -7809,49 +7809,49 @@
         <v>87.13587819270245</v>
       </c>
       <c r="K46" t="n">
-        <v>171.1136997362474</v>
+        <v>381.6345055669481</v>
       </c>
       <c r="L46" t="n">
-        <v>522.9070889549464</v>
+        <v>870.3457903084417</v>
       </c>
       <c r="M46" t="n">
-        <v>1055.400253114256</v>
+        <v>989.30347400493</v>
       </c>
       <c r="N46" t="n">
-        <v>1570.839159777536</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O46" t="n">
-        <v>2053.684035899826</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P46" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q46" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S46" t="n">
-        <v>2037.559238250755</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T46" t="n">
-        <v>1798.149771944334</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U46" t="n">
-        <v>1518.015492144225</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="V46" t="n">
-        <v>1236.304024752254</v>
+        <v>1230.621142799299</v>
       </c>
       <c r="W46" t="n">
-        <v>961.4516209247672</v>
+        <v>955.7687389718121</v>
       </c>
       <c r="X46" t="n">
-        <v>718.8877243705723</v>
+        <v>713.2048424176172</v>
       </c>
       <c r="Y46" t="n">
-        <v>718.8877243705723</v>
+        <v>713.2048424176172</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>226.7387501736388</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>264.3488622824469</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>263.7525528475614</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>226.738750173639</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>228.1537550505092</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>365.549801220808</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>203.0445018459501</v>
+        <v>96.52379448746002</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>243.2165947276856</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.06058327914859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>120.2180428151481</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>241.8898970387581</v>
+        <v>241.8898970387577</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>243.8129041625721</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>241.8898970387584</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>226.7387501736388</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>329.3546939888698</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.06058327914813</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387585</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>265.6755599713746</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>226.7387501736388</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>10.27856973964688</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>115.7693879743214</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>96.52379448745944</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>241.8898970387581</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>241.8898970387585</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>241.8898970387581</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>316.7808342020662</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>226.7387501736388</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>241.8898970387581</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11235,7 +11235,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>279.411701959623</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>212.6472786168694</v>
       </c>
       <c r="L46" t="n">
-        <v>241.8898970387581</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.26871074056618</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>397.2485358629976</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>40.11200016062293</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T13" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>228.735660641616</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>251.0888078321774</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>312.168879375278</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>23.08527491876832</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>234.6275445386995</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>245.2547020043671</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>225.4809903467092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5690535184061</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>166.3354303548533</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>68.0490355627922</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,10 +23977,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>211.8553182771296</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.6878051465386</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>250.0203758618167</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>182.1210841562677</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,10 +24217,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
         <v>274.1005558094662</v>
@@ -24262,16 +24262,16 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
-        <v>82.74959063056107</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>42.51382611210238</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.1925000516043</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24451,16 +24451,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>70.67428599966919</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6089649852995</v>
@@ -24511,7 +24511,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>376.1848373993867</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.644686274472832</v>
       </c>
       <c r="D28" t="n">
-        <v>93.58331024566347</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>134.26258275451</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S28" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>237.491747078245</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>103.5435550041195</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>152.9900759083934</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,10 +24852,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.17355100244967</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2657302332918</v>
+        <v>340.5420906327127</v>
       </c>
       <c r="H32" t="n">
         <v>274.1005558094662</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.8302460968812</v>
@@ -24976,13 +24976,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>351.8907152770899</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.43577114531841</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>167.9775066385694</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>334.7651703202174</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V35" t="n">
-        <v>165.3964951922505</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>84.46479158423375</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6838381111991</v>
+        <v>136.5781241398498</v>
       </c>
       <c r="H37" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>16.52960711752581</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.035683725396098</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
         <v>255.6089649852995</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>69.81558998636649</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>113.7997981887353</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S40" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>230.5099050400277</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>198.1406772586689</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.0000541397323</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -25794,10 +25794,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>41.34568475949236</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>97.63808736021159</v>
       </c>
       <c r="V44" t="n">
-        <v>150.7713006390233</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>41.34568475949213</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>59.54749786902453</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>374258.6436265542</v>
+        <v>374258.6436265541</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>374258.6436265543</v>
+        <v>374258.6436265542</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>374258.6436265542</v>
+        <v>374258.6436265543</v>
       </c>
     </row>
     <row r="12">
@@ -26316,28 +26316,28 @@
         <v>415973.9782741587</v>
       </c>
       <c r="C2" t="n">
-        <v>415973.9782741586</v>
+        <v>415973.9782741587</v>
       </c>
       <c r="D2" t="n">
-        <v>415973.9782741586</v>
+        <v>415973.9782741587</v>
       </c>
       <c r="E2" t="n">
+        <v>251417.5809647262</v>
+      </c>
+      <c r="F2" t="n">
+        <v>251417.5809647263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>251417.5809647263</v>
+      </c>
+      <c r="H2" t="n">
         <v>251417.5809647264</v>
-      </c>
-      <c r="F2" t="n">
-        <v>251417.5809647264</v>
-      </c>
-      <c r="G2" t="n">
-        <v>251417.5809647265</v>
-      </c>
-      <c r="H2" t="n">
-        <v>251417.5809647265</v>
       </c>
       <c r="I2" t="n">
         <v>251417.5809647264</v>
       </c>
       <c r="J2" t="n">
-        <v>251417.5809647265</v>
+        <v>251417.5809647264</v>
       </c>
       <c r="K2" t="n">
         <v>251417.5809647264</v>
@@ -26346,16 +26346,16 @@
         <v>251417.5809647264</v>
       </c>
       <c r="M2" t="n">
-        <v>251417.5809647265</v>
+        <v>251417.5809647264</v>
       </c>
       <c r="N2" t="n">
-        <v>251417.5809647265</v>
+        <v>251417.5809647264</v>
       </c>
       <c r="O2" t="n">
-        <v>251417.5809647265</v>
+        <v>251417.5809647263</v>
       </c>
       <c r="P2" t="n">
-        <v>251417.5809647265</v>
+        <v>251417.5809647264</v>
       </c>
     </row>
     <row r="3">
@@ -26432,7 +26432,7 @@
         <v>19257.19159663033</v>
       </c>
       <c r="G4" t="n">
-        <v>19257.19159663033</v>
+        <v>19257.19159663035</v>
       </c>
       <c r="H4" t="n">
         <v>19257.19159663033</v>
@@ -26444,16 +26444,16 @@
         <v>19257.19159663033</v>
       </c>
       <c r="K4" t="n">
-        <v>19257.19159663033</v>
+        <v>19257.19159663034</v>
       </c>
       <c r="L4" t="n">
         <v>19257.19159663033</v>
       </c>
       <c r="M4" t="n">
+        <v>19257.19159663034</v>
+      </c>
+      <c r="N4" t="n">
         <v>19257.19159663033</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19257.19159663034</v>
       </c>
       <c r="O4" t="n">
         <v>19257.19159663033</v>
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781074</v>
       </c>
       <c r="H5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="I5" t="n">
         <v>44321.17942781076</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="K5" t="n">
         <v>44321.17942781076</v>
@@ -26505,10 +26505,10 @@
         <v>44321.17942781076</v>
       </c>
       <c r="N5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="O5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="P5" t="n">
         <v>44321.17942781076</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60589.07572423667</v>
+        <v>60567.36208274038</v>
       </c>
       <c r="C6" t="n">
-        <v>60589.07572423655</v>
+        <v>60567.36208274032</v>
       </c>
       <c r="D6" t="n">
-        <v>60589.07572423655</v>
+        <v>60567.36208274032</v>
       </c>
       <c r="E6" t="n">
-        <v>-381433.2639710522</v>
+        <v>-382022.4134653399</v>
       </c>
       <c r="F6" t="n">
-        <v>187839.2099402853</v>
+        <v>187250.0604459977</v>
       </c>
       <c r="G6" t="n">
-        <v>187839.2099402854</v>
+        <v>187250.0604459977</v>
       </c>
       <c r="H6" t="n">
-        <v>187839.2099402854</v>
+        <v>187250.0604459978</v>
       </c>
       <c r="I6" t="n">
-        <v>187839.2099402853</v>
+        <v>187250.0604459978</v>
       </c>
       <c r="J6" t="n">
-        <v>187839.2099402854</v>
+        <v>187250.0604459979</v>
       </c>
       <c r="K6" t="n">
-        <v>187839.2099402853</v>
+        <v>187250.0604459978</v>
       </c>
       <c r="L6" t="n">
-        <v>187839.2099402854</v>
+        <v>187250.0604459978</v>
       </c>
       <c r="M6" t="n">
-        <v>51296.2647138013</v>
+        <v>50707.11521951376</v>
       </c>
       <c r="N6" t="n">
-        <v>187839.2099402854</v>
+        <v>187250.0604459978</v>
       </c>
       <c r="O6" t="n">
-        <v>187839.2099402854</v>
+        <v>187250.0604459978</v>
       </c>
       <c r="P6" t="n">
-        <v>187839.2099402854</v>
+        <v>187250.0604459978</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="G3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470794</v>
       </c>
       <c r="H3" t="n">
         <v>504.9479613470796</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="G4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="H4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="I4" t="n">
         <v>547.9163465533624</v>
       </c>
       <c r="J4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="K4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="L4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="N4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="O4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="P4" t="n">
         <v>547.9163465533622</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31761,22 +31761,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J11" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K11" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L11" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M11" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N11" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O11" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P11" t="n">
         <v>291.9081327704994</v>
@@ -31788,10 +31788,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T11" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U11" t="n">
         <v>0.1623953242523269</v>
@@ -31840,7 +31840,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K12" t="n">
         <v>175.3836706878814</v>
@@ -31855,7 +31855,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O12" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P12" t="n">
         <v>207.4002296332939</v>
@@ -31873,7 +31873,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H13" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I13" t="n">
         <v>27.38307960878917</v>
@@ -31925,7 +31925,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L13" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M13" t="n">
         <v>142.7347163525851</v>
@@ -31952,7 +31952,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,22 +31998,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J14" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K14" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L14" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M14" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N14" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O14" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P14" t="n">
         <v>291.9081327704994</v>
@@ -32025,10 +32025,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T14" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U14" t="n">
         <v>0.1623953242523269</v>
@@ -32077,7 +32077,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J15" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K15" t="n">
         <v>175.3836706878814</v>
@@ -32092,7 +32092,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O15" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P15" t="n">
         <v>207.4002296332939</v>
@@ -32110,7 +32110,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H16" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I16" t="n">
         <v>27.38307960878917</v>
@@ -32162,7 +32162,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L16" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M16" t="n">
         <v>142.7347163525851</v>
@@ -32189,7 +32189,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H17" t="n">
-        <v>20.7891389312393</v>
+        <v>20.78913893123929</v>
       </c>
       <c r="I17" t="n">
-        <v>78.25932172797302</v>
+        <v>78.259321727973</v>
       </c>
       <c r="J17" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K17" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M17" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N17" t="n">
-        <v>362.2075461831669</v>
+        <v>362.2075461831668</v>
       </c>
       <c r="O17" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P17" t="n">
-        <v>291.9081327704994</v>
+        <v>291.9081327704993</v>
       </c>
       <c r="Q17" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981685</v>
       </c>
       <c r="R17" t="n">
         <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T17" t="n">
-        <v>8.886069148932021</v>
+        <v>8.886069148932018</v>
       </c>
       <c r="U17" t="n">
         <v>0.1623953242523269</v>
@@ -32311,43 +32311,43 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I18" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976013</v>
       </c>
       <c r="J18" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K18" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L18" t="n">
-        <v>235.8249889291243</v>
+        <v>235.8249889291242</v>
       </c>
       <c r="M18" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341582</v>
       </c>
       <c r="N18" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
-        <v>258.4142647093871</v>
+        <v>258.4142647093869</v>
       </c>
       <c r="P18" t="n">
-        <v>207.4002296332939</v>
+        <v>207.4002296332938</v>
       </c>
       <c r="Q18" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R18" t="n">
-        <v>67.43437113989869</v>
+        <v>67.43437113989867</v>
       </c>
       <c r="S18" t="n">
-        <v>20.17410015381963</v>
+        <v>20.17410015381962</v>
       </c>
       <c r="T18" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678923</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062448</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,28 +32384,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.9105618975111267</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417114</v>
       </c>
       <c r="I19" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878916</v>
       </c>
       <c r="J19" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403665</v>
       </c>
       <c r="K19" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L19" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M19" t="n">
         <v>142.7347163525851</v>
       </c>
       <c r="N19" t="n">
-        <v>139.3408038254983</v>
+        <v>139.3408038254982</v>
       </c>
       <c r="O19" t="n">
         <v>128.7037852954819</v>
@@ -32414,19 +32414,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340898</v>
       </c>
       <c r="R19" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627301</v>
       </c>
       <c r="S19" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T19" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002086</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151606</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>320.3400016493639</v>
       </c>
       <c r="M44" t="n">
-        <v>356.4399747452684</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N44" t="n">
         <v>362.2075461831669</v>
@@ -35415,7 +35415,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L11" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M11" t="n">
         <v>319.008711845836</v>
@@ -35424,7 +35424,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O11" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P11" t="n">
         <v>254.3327709602681</v>
@@ -35433,7 +35433,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R11" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>21.22234434976014</v>
       </c>
       <c r="J12" t="n">
-        <v>308.741636174055</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
@@ -35497,7 +35497,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N12" t="n">
         <v>261.1372468800477</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
-        <v>84.8260823672171</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L13" t="n">
-        <v>493.647762365145</v>
+        <v>377.8058230403545</v>
       </c>
       <c r="M13" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N13" t="n">
         <v>118.5919028498979</v>
@@ -35585,10 +35585,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P13" t="n">
-        <v>351.5000747758298</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L14" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M14" t="n">
         <v>319.008711845836</v>
@@ -35661,7 +35661,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O14" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P14" t="n">
         <v>254.3327709602681</v>
@@ -35670,7 +35670,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R14" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>21.22234434976014</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041613</v>
+        <v>82.00288600041611</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
@@ -35734,16 +35734,16 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M15" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N15" t="n">
         <v>261.1372468800477</v>
       </c>
       <c r="O15" t="n">
-        <v>461.9811251608037</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6293884284652</v>
+        <v>412.3681386021042</v>
       </c>
       <c r="Q15" t="n">
         <v>115.8945227208838</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K16" t="n">
-        <v>84.8260823672171</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L16" t="n">
-        <v>493.647762365145</v>
+        <v>341.6107158084168</v>
       </c>
       <c r="M16" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
-        <v>484.1417040707059</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O16" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P16" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.71141918400951</v>
+        <v>43.7114191840095</v>
       </c>
       <c r="J17" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K17" t="n">
-        <v>222.4515770472151</v>
+        <v>222.451577047215</v>
       </c>
       <c r="L17" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167408</v>
       </c>
       <c r="M17" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458359</v>
       </c>
       <c r="N17" t="n">
-        <v>324.9279233487209</v>
+        <v>324.9279233487208</v>
       </c>
       <c r="O17" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P17" t="n">
-        <v>254.3327709602681</v>
+        <v>254.332770960268</v>
       </c>
       <c r="Q17" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351903</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.91659267744888</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J18" t="n">
-        <v>285.0473878463662</v>
+        <v>178.5266804878761</v>
       </c>
       <c r="K18" t="n">
-        <v>152.9844368545481</v>
+        <v>152.984436854548</v>
       </c>
       <c r="L18" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218302</v>
       </c>
       <c r="N18" t="n">
-        <v>261.1372468800477</v>
+        <v>261.1372468800476</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2423749871648</v>
+        <v>235.2423749871647</v>
       </c>
       <c r="P18" t="n">
         <v>185.6293884284652</v>
@@ -35986,7 +35986,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013478</v>
       </c>
       <c r="K19" t="n">
-        <v>334.6064956137041</v>
+        <v>328.0426770949027</v>
       </c>
       <c r="L19" t="n">
-        <v>493.647762365145</v>
+        <v>493.6477623651449</v>
       </c>
       <c r="M19" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N19" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659384</v>
       </c>
       <c r="O19" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826828</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.68816267777265</v>
+        <v>51.62757939862404</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J21" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K21" t="n">
         <v>152.9844368545481</v>
@@ -36214,7 +36214,7 @@
         <v>261.1372468800477</v>
       </c>
       <c r="O21" t="n">
-        <v>355.460417802313</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P21" t="n">
         <v>185.6293884284652</v>
@@ -36284,7 +36284,7 @@
         <v>84.8260823672171</v>
       </c>
       <c r="L22" t="n">
-        <v>355.3468577966657</v>
+        <v>355.3468577966653</v>
       </c>
       <c r="M22" t="n">
         <v>537.871882989202</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J24" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K24" t="n">
         <v>152.9844368545481</v>
@@ -36448,7 +36448,7 @@
         <v>252.0998584218304</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8759970536865</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O24" t="n">
         <v>235.2423749871648</v>
@@ -36460,7 +36460,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K25" t="n">
-        <v>84.8260823672171</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L25" t="n">
-        <v>113.4569607579076</v>
+        <v>357.2698649204797</v>
       </c>
       <c r="M25" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N25" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O25" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P25" t="n">
-        <v>329.6374189670267</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J27" t="n">
-        <v>308.741636174055</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
@@ -36697,7 +36697,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K28" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L28" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M28" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N28" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O28" t="n">
-        <v>487.7220970932224</v>
+        <v>435.5592917859272</v>
       </c>
       <c r="P28" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.6881626777722</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
@@ -36919,7 +36919,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M30" t="n">
-        <v>478.8386085954692</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N30" t="n">
         <v>261.1372468800477</v>
@@ -36934,7 +36934,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K31" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L31" t="n">
-        <v>493.647762365145</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M31" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N31" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>371.880157768432</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P31" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J33" t="n">
-        <v>308.741636174055</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
@@ -37171,7 +37171,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R33" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K34" t="n">
-        <v>84.8260823672171</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M34" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N34" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O34" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P34" t="n">
-        <v>98.02609166791521</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5301020025625</v>
+        <v>167.3969673729454</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
@@ -37396,7 +37396,7 @@
         <v>252.0998584218304</v>
       </c>
       <c r="N36" t="n">
-        <v>357.6610413675071</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O36" t="n">
         <v>235.2423749871648</v>
@@ -37466,10 +37466,10 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K37" t="n">
-        <v>326.7159794059751</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L37" t="n">
-        <v>113.4569607579076</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M37" t="n">
         <v>537.871882989202</v>
@@ -37566,7 +37566,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351899</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J39" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
@@ -37642,10 +37642,10 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q39" t="n">
-        <v>342.6332728945229</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
-        <v>84.8260823672171</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L40" t="n">
-        <v>355.3468577966657</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M40" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N40" t="n">
-        <v>520.6453602659385</v>
+        <v>435.3727370519641</v>
       </c>
       <c r="O40" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P40" t="n">
         <v>87.74752192826833</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J42" t="n">
-        <v>308.741636174055</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
@@ -37882,7 +37882,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R42" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,10 +37943,10 @@
         <v>84.8260823672171</v>
       </c>
       <c r="L43" t="n">
-        <v>355.3468577966657</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M43" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N43" t="n">
         <v>520.6453602659385</v>
@@ -37955,7 +37955,7 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P43" t="n">
-        <v>87.74752192826833</v>
+        <v>367.1592238878914</v>
       </c>
       <c r="Q43" t="n">
         <v>51.62757939862406</v>
@@ -38025,7 +38025,7 @@
         <v>282.027959216741</v>
       </c>
       <c r="M44" t="n">
-        <v>319.0087118458366</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N44" t="n">
         <v>324.9279233487209</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J45" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K45" t="n">
         <v>152.9844368545481</v>
@@ -38104,7 +38104,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M45" t="n">
-        <v>478.8386085954692</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N45" t="n">
         <v>261.1372468800477</v>
@@ -38119,7 +38119,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R45" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K46" t="n">
-        <v>84.8260823672171</v>
+        <v>297.4733609840865</v>
       </c>
       <c r="L46" t="n">
-        <v>355.3468577966657</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M46" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N46" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O46" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P46" t="n">
-        <v>87.74752192826833</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
